--- a/izvještaji/generated/Statistika_za_direktora_Januar_2026.xlsx
+++ b/izvještaji/generated/Statistika_za_direktora_Januar_2026.xlsx
@@ -58,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -66,11 +66,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border/>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -78,15 +107,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,445 +539,423 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Broj letova</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Ukrcano</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Iskrcano</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Ukupno</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Redovni promet</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>200</v>
+      <c r="B5" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  AJet (Turkish Airlines)</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  AJet</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Pegasus Airlines</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="C7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  WIZZ AIR HUNGARY LTD</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  WIZZ AIR MALTA LTD</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>200</v>
+          <t>Vanredni promet</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Vanredni promet</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Ostala slijetanja</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Ostala slijetanja</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="11" t="n"/>
+      <c r="C11" s="11" t="n"/>
+      <c r="D11" s="11" t="n"/>
+      <c r="E11" s="12" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr">
         <is>
           <t>UKUPNO</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>103</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>200</v>
+      <c r="B12" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>55</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>TERET</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>TERET</t>
+      <c r="B16" s="16" t="inlineStr">
+        <is>
+          <t>Utovareno</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Istovareno</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Ukupno</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Utovareno</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Istovareno</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="B17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>UKUPNO (Januar - Januar 2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>PUTNICI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>Broj letova</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Ukrcano</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Iskrcano</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Ukupno</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>UKUPNO (Januar - Januar 2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>PUTNICI</t>
-        </is>
-      </c>
-    </row>
     <row r="24">
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Broj letova</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Ukrcano</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Iskrcano</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>Ukupno</t>
-        </is>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Redovni promet</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>Redovni promet</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>200</v>
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  AJet</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  AJet (Turkish Airlines)</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="n">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Pegasus Airlines</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="5" t="n">
+      <c r="C26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Pegasus Airlines</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>0</v>
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Wizz Air Hungary</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  WIZZ AIR HUNGARY LTD</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5" t="n">
+          <t>Vanredni promet</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  WIZZ AIR MALTA LTD</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>200</v>
+          <t>Ostala slijetanja</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>Vanredni promet</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="11" t="n"/>
+      <c r="C30" s="11" t="n"/>
+      <c r="D30" s="11" t="n"/>
+      <c r="E30" s="12" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>Ostala slijetanja</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A31" s="13" t="inlineStr">
         <is>
           <t>UKUPNO</t>
         </is>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>103</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="7" t="n">
-        <v>200</v>
+      <c r="B31" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>55</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>TERET</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="16" t="inlineStr">
+        <is>
+          <t>Utovareno</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Istovareno</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Ukupno</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>TERET</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>Utovareno</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Istovareno</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>Ukupno</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5" t="n">
+      <c r="B36" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
